--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/61.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/61.xlsx
@@ -479,13 +479,13 @@
         <v>0.002999567531175136</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.935860017198693</v>
+        <v>-1.934134240355238</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3917610597367279</v>
+        <v>0.393662042351091</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2302851291544687</v>
+        <v>-0.2311217367105594</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.02697396810084106</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.94939247292928</v>
+        <v>-1.947526531469099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3103108169372952</v>
+        <v>0.3122439206096583</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2099364389114742</v>
+        <v>-0.2108577292568376</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.0363232289545871</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.020545726567579</v>
+        <v>-2.01761468002508</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2823304553231209</v>
+        <v>0.2851352077057565</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2271474858071059</v>
+        <v>-0.2282469020195602</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.02411376456517596</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.083055495507698</v>
+        <v>-2.081077860368563</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2588003202900363</v>
+        <v>0.2609582713683993</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2337965448131042</v>
+        <v>-0.2348156583805584</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.009364804479377563</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.049771509203298</v>
+        <v>-2.047978570147662</v>
       </c>
       <c r="F6" t="n">
-        <v>0.244461187989222</v>
+        <v>0.2469856111384031</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2215905427731074</v>
+        <v>-0.2226227967733799</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.05688680532752344</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.914203853890289</v>
+        <v>-1.913540262032971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.262611045807308</v>
+        <v>0.2641732972645803</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2085143520709291</v>
+        <v>-0.2097057513131106</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1058788766178422</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.642959039657453</v>
+        <v>-1.641953066522817</v>
       </c>
       <c r="F8" t="n">
-        <v>0.261491188921581</v>
+        <v>0.2626811281156716</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.185168183097299</v>
+        <v>-0.1853492290605717</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1426189738551283</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.266659385139463</v>
+        <v>-1.265364322482827</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2456379867504944</v>
+        <v>0.2468293859926759</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1281533051473144</v>
+        <v>-0.1280584020214053</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1573052338219182</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7807247194751391</v>
+        <v>-0.7786689717631397</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2703712014104877</v>
+        <v>0.2717889081067601</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02818819250706847</v>
+        <v>-0.02784946134997765</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1433468328842562</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2469223771503734</v>
+        <v>-0.2442796901058286</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1618458268132441</v>
+        <v>0.1645483758295161</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05978262506636245</v>
+        <v>0.06044110675536227</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.09797667715299087</v>
       </c>
       <c r="E12" t="n">
-        <v>0.422957907295174</v>
+        <v>0.4244150352899009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04031726391836768</v>
+        <v>0.04239345230363985</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1580555419692452</v>
+        <v>0.1594863890983357</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.02183938953521682</v>
       </c>
       <c r="E13" t="n">
-        <v>1.10633341624499</v>
+        <v>1.109263732763444</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1238549235676791</v>
+        <v>-0.1223306333607705</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2907782935771186</v>
+        <v>0.2916879035377547</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.08391044260714363</v>
       </c>
       <c r="E14" t="n">
-        <v>1.823693004558798</v>
+        <v>1.826148805447706</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3491768451971641</v>
+        <v>-0.3462129475726194</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4365947564642613</v>
+        <v>0.4383949957603517</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2171039397674099</v>
       </c>
       <c r="E15" t="n">
-        <v>2.529554714156699</v>
+        <v>2.531207488595608</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6201792914469095</v>
+        <v>-0.6175774857489102</v>
       </c>
       <c r="G15" t="n">
-        <v>0.624898618796847</v>
+        <v>0.626802521507392</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3747629017941435</v>
       </c>
       <c r="E16" t="n">
-        <v>3.203143520753155</v>
+        <v>3.2033289468607</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9377879328065515</v>
+        <v>-0.9361921002431883</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7809412585127142</v>
+        <v>0.7828145002133501</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.552424970138762</v>
       </c>
       <c r="E17" t="n">
-        <v>3.862073444516887</v>
+        <v>3.860974028304433</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.198330594533027</v>
+        <v>-1.195838292441846</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9794669175297519</v>
+        <v>0.9814905441837514</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.744617711203698</v>
       </c>
       <c r="E18" t="n">
-        <v>4.402044490025742</v>
+        <v>4.400934853476651</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.557176834172294</v>
+        <v>-1.555592681993658</v>
       </c>
       <c r="G18" t="n">
-        <v>1.178653978331971</v>
+        <v>1.181038236864425</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9453042966201548</v>
       </c>
       <c r="E19" t="n">
-        <v>4.931273961729782</v>
+        <v>4.929516063828328</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.841685455286991</v>
+        <v>-1.839169062402309</v>
       </c>
       <c r="G19" t="n">
-        <v>1.377124155521554</v>
+        <v>1.378511201207917</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.147086344815305</v>
       </c>
       <c r="E20" t="n">
-        <v>5.293958667800048</v>
+        <v>5.291653251864503</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.161892252224404</v>
+        <v>-2.159761312035724</v>
       </c>
       <c r="G20" t="n">
-        <v>1.586178221322134</v>
+        <v>1.587962400089225</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.343669332565891</v>
       </c>
       <c r="E21" t="n">
-        <v>5.604315250292147</v>
+        <v>5.602431788254874</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.479495053391683</v>
+        <v>-2.476226735740184</v>
       </c>
       <c r="G21" t="n">
-        <v>1.766955535746086</v>
+        <v>1.768655031723904</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.527105101558627</v>
       </c>
       <c r="E22" t="n">
-        <v>5.84321123902281</v>
+        <v>5.84001519375181</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.789741402252918</v>
+        <v>-2.78609712221801</v>
       </c>
       <c r="G22" t="n">
-        <v>1.894343271629779</v>
+        <v>1.89608072885796</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.686939299515097</v>
       </c>
       <c r="E23" t="n">
-        <v>5.99546797403895</v>
+        <v>5.991495183183588</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.040217762416623</v>
+        <v>-3.03676547870567</v>
       </c>
       <c r="G23" t="n">
-        <v>2.013509476713565</v>
+        <v>2.014731536965656</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.813365491273459</v>
       </c>
       <c r="E24" t="n">
-        <v>6.085577762065562</v>
+        <v>6.0815728501522</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.274109436315697</v>
+        <v>-3.270982743329016</v>
       </c>
       <c r="G24" t="n">
-        <v>2.115742044038992</v>
+        <v>2.117301375400083</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.900286363094282</v>
       </c>
       <c r="E25" t="n">
-        <v>6.099991356819014</v>
+        <v>6.095961624088106</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.449422520759422</v>
+        <v>-3.446136682530832</v>
       </c>
       <c r="G25" t="n">
-        <v>2.170877840095978</v>
+        <v>2.173441684543613</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.94581793238126</v>
       </c>
       <c r="E26" t="n">
-        <v>6.047442765979119</v>
+        <v>6.043342950939847</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.615718348193696</v>
+        <v>-3.611917843013061</v>
       </c>
       <c r="G26" t="n">
-        <v>2.197371872753607</v>
+        <v>2.200128443549242</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.951035434716378</v>
       </c>
       <c r="E27" t="n">
-        <v>5.944707942110418</v>
+        <v>5.941849167948419</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.705119282872172</v>
+        <v>-3.700844262061991</v>
       </c>
       <c r="G27" t="n">
-        <v>2.200033540423333</v>
+        <v>2.202441159725242</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.920201164487267</v>
       </c>
       <c r="E28" t="n">
-        <v>5.871705537564984</v>
+        <v>5.869461443649257</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.7717792385107</v>
+        <v>-3.767805717631292</v>
       </c>
       <c r="G28" t="n">
-        <v>2.207184855972604</v>
+        <v>2.210122472731512</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.857710440340748</v>
       </c>
       <c r="E29" t="n">
-        <v>5.6745202026954</v>
+        <v>5.673213459654037</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.810707040710507</v>
+        <v>-3.806821852740599</v>
       </c>
       <c r="G29" t="n">
-        <v>2.20653513457215</v>
+        <v>2.208295952569785</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.769535121504854</v>
       </c>
       <c r="E30" t="n">
-        <v>5.463334466682094</v>
+        <v>5.462208769604003</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.838815886556682</v>
+        <v>-3.834188994156592</v>
       </c>
       <c r="G30" t="n">
-        <v>2.160876510673253</v>
+        <v>2.162492783909889</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.662741794102875</v>
       </c>
       <c r="E31" t="n">
-        <v>5.18430175593235</v>
+        <v>5.18370605631126</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.735133491476982</v>
+        <v>-3.730504409004756</v>
       </c>
       <c r="G31" t="n">
-        <v>2.078721064645911</v>
+        <v>2.080220534035274</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.545051736264836</v>
       </c>
       <c r="E32" t="n">
-        <v>4.878418760790796</v>
+        <v>4.877114937845614</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.653545274132959</v>
+        <v>-3.64903226548396</v>
       </c>
       <c r="G32" t="n">
-        <v>1.933190771184587</v>
+        <v>1.934239085713859</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.422604441119808</v>
       </c>
       <c r="E33" t="n">
-        <v>4.596730222563689</v>
+        <v>4.595940336546508</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.51620293036545</v>
+        <v>-3.512357163693997</v>
       </c>
       <c r="G33" t="n">
-        <v>1.840831049049884</v>
+        <v>1.841993247330248</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.300914773519617</v>
       </c>
       <c r="E34" t="n">
-        <v>4.264608703180415</v>
+        <v>4.263865538702142</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.401584775084844</v>
+        <v>-3.399210006864982</v>
       </c>
       <c r="G34" t="n">
-        <v>1.714697494476282</v>
+        <v>1.716842305121827</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.183644028538439</v>
       </c>
       <c r="E35" t="n">
-        <v>3.921514922393962</v>
+        <v>3.920021293196962</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.28303179019924</v>
+        <v>-3.281007433521195</v>
       </c>
       <c r="G35" t="n">
-        <v>1.602425636477766</v>
+        <v>1.603606815383312</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.07226280703225</v>
       </c>
       <c r="E36" t="n">
-        <v>3.587042725584324</v>
+        <v>3.584684747917507</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.158280171143682</v>
+        <v>-3.156295235764092</v>
       </c>
       <c r="G36" t="n">
-        <v>1.455947771805442</v>
+        <v>1.457496882829896</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9675263729642678</v>
       </c>
       <c r="E37" t="n">
-        <v>3.235232457695146</v>
+        <v>3.234540394900055</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.016407298150084</v>
+        <v>-3.016192671080721</v>
       </c>
       <c r="G37" t="n">
-        <v>1.325120162619568</v>
+        <v>1.326759796625659</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.869950902884981</v>
       </c>
       <c r="E38" t="n">
-        <v>2.877170263880697</v>
+        <v>2.875997845263697</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.960218807419554</v>
+        <v>-2.960841517930326</v>
       </c>
       <c r="G38" t="n">
-        <v>1.179421963627789</v>
+        <v>1.180765207871425</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7789212383617119</v>
       </c>
       <c r="E39" t="n">
-        <v>2.532283544038608</v>
+        <v>2.532295224423335</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.820990811542637</v>
+        <v>-2.821417145585182</v>
       </c>
       <c r="G39" t="n">
-        <v>1.078942914059543</v>
+        <v>1.080118252772725</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6940936049316696</v>
       </c>
       <c r="E40" t="n">
-        <v>2.214854488594147</v>
+        <v>2.215226800857329</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.703461320368759</v>
+        <v>-2.704404511435486</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9585561087717575</v>
+        <v>0.9598862125825753</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6158647134956166</v>
       </c>
       <c r="E41" t="n">
-        <v>1.881808758769328</v>
+        <v>1.882169390647782</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.574309116367203</v>
+        <v>-2.575329689982748</v>
       </c>
       <c r="G41" t="n">
-        <v>0.836709255393063</v>
+        <v>0.8378203519902444</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5434232533881312</v>
       </c>
       <c r="E42" t="n">
-        <v>1.54990770664778</v>
+        <v>1.550306299776599</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.510316668590765</v>
+        <v>-2.510887547394311</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7207974975039122</v>
+        <v>0.7214121777501848</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4754277565354655</v>
       </c>
       <c r="E43" t="n">
-        <v>1.285106084640124</v>
+        <v>1.285538258875033</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.430006723350333</v>
+        <v>-2.430558621528696</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6564984396283841</v>
+        <v>0.6575993158889292</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4105889456115029</v>
       </c>
       <c r="E44" t="n">
-        <v>1.017546431788742</v>
+        <v>1.017267562603378</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.314637373326955</v>
+        <v>-2.316188674423545</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5489717379253221</v>
+        <v>0.5498550670203217</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.347757187965978</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7988458282515276</v>
+        <v>0.7972996373232554</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.270321263647648</v>
+        <v>-2.271699549045466</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4422013411333507</v>
+        <v>0.4431109510939868</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2864383559009091</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5645869522575906</v>
+        <v>0.5629049768568637</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.179371947968764</v>
+        <v>-2.180861927045536</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3763809131470956</v>
+        <v>0.3763473320410047</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2271135632007442</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3660569130962802</v>
+        <v>0.3641559304819171</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.091174822941242</v>
+        <v>-2.091688759869242</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2954665079970265</v>
+        <v>0.2953365637169356</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1702687269163741</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2477141751357665</v>
+        <v>0.2448013791944037</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.986238246551452</v>
+        <v>-1.987065363794952</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2070343152268684</v>
+        <v>0.2062444292096868</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1172035449450227</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1183758150026194</v>
+        <v>0.11646461205162</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.888733314944387</v>
+        <v>-1.888651552251296</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1541309327008826</v>
+        <v>0.1537951216399736</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06849161565306178</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01316182947555679</v>
+        <v>0.01132508897719365</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.805005397123137</v>
+        <v>-1.804416997742501</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08819954105971846</v>
+        <v>0.08747389715853683</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.02503929679003473</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.07808825611005507</v>
+        <v>-0.07923585390950931</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.675778000644899</v>
+        <v>-1.674723845923263</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03117882291737013</v>
+        <v>0.02973337530737052</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0131438660421834</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1849301952584809</v>
+        <v>-0.1846425657845719</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.556262844067385</v>
+        <v>-1.554592549051386</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.00751975173216493</v>
+        <v>-0.008087710439528413</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.04686600920647399</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3061171069000848</v>
+        <v>-0.3053958431431759</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.442852148557961</v>
+        <v>-1.441463642823507</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07544410901741942</v>
+        <v>-0.07578576027069206</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.07662495177391714</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3401391475144392</v>
+        <v>-0.3394412445269849</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.370827976233435</v>
+        <v>-1.369814702858345</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1395358400640386</v>
+        <v>-0.1399796946836748</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1030641824600705</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4690292728836774</v>
+        <v>-0.4682233263374957</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.32709953591072</v>
+        <v>-1.325683289262538</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.15129944753249</v>
+        <v>-0.150611764881672</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1266653607398043</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5508328473211099</v>
+        <v>-0.5488136008113832</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.238588500543653</v>
+        <v>-1.238395774195653</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2002767607420223</v>
+        <v>-0.2001000949230223</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1473761162443648</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6525266569009918</v>
+        <v>-0.6496868633641744</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.198000623664482</v>
+        <v>-1.197410764235755</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2312516809906503</v>
+        <v>-0.2305581581474687</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1654196365432725</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6761692156370763</v>
+        <v>-0.6725307757945318</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.156744044759675</v>
+        <v>-1.156570299036856</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.266151210507641</v>
+        <v>-0.2651642179981867</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1809569007425787</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7699583248527784</v>
+        <v>-0.7671272916045064</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.144016805551223</v>
+        <v>-1.143187498235587</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3186326391353541</v>
+        <v>-0.317755150232718</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.194412839432198</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8353933001430336</v>
+        <v>-0.8332835306516705</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102402514864144</v>
+        <v>-1.102287171064962</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3529174884060722</v>
+        <v>-0.3516939681058907</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2058753102817392</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9676327758328163</v>
+        <v>-0.9650426505195442</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.095452685951418</v>
+        <v>-1.094005778293328</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3957187981910607</v>
+        <v>-0.3949712535685154</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2157076198527013</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.090336677440874</v>
+        <v>-1.086961046254693</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.095236598833964</v>
+        <v>-1.093836412714782</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.438490907014231</v>
+        <v>-0.4370717402698678</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2241657012565977</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.148853944876404</v>
+        <v>-1.146414204516496</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.134316246035226</v>
+        <v>-1.133127766889226</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4982258545575786</v>
+        <v>-0.4968621696406699</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2317460900574817</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.245373344022105</v>
+        <v>-1.242228400434288</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.163596050450309</v>
+        <v>-1.161997297790764</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5259025261688439</v>
+        <v>-0.5249505748135714</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2388811675098946</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.378474248085524</v>
+        <v>-1.374429914873707</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.124914996377865</v>
+        <v>-1.123060735302411</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5508386875134735</v>
+        <v>-0.5498940363986556</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2460684835713122</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.437695258700872</v>
+        <v>-1.433591063517327</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.204817588200934</v>
+        <v>-1.202189501637299</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6054123650554589</v>
+        <v>-0.6047115419718228</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2532019558963733</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.536836904217845</v>
+        <v>-1.532773590380846</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.296155276672001</v>
+        <v>-1.293527190108365</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6492021273979927</v>
+        <v>-0.6493817133131744</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2605814970995377</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.55953189174293</v>
+        <v>-1.556725679312204</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.366611357346891</v>
+        <v>-1.363821205445164</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6729206086348044</v>
+        <v>-0.6729936110393498</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2678724057965694</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.624330286065549</v>
+        <v>-1.622330020181004</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.44918145703205</v>
+        <v>-1.446198578782324</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6667110241041697</v>
+        <v>-0.6673330045908968</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2749395446015637</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.678854321972443</v>
+        <v>-1.677217608062535</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.523404461781485</v>
+        <v>-1.520827476901031</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6923231877148901</v>
+        <v>-0.6926984200742536</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.281170595267732</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.713907156538979</v>
+        <v>-1.711309730985253</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.635212024487092</v>
+        <v>-1.632372230950274</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7347492651405151</v>
+        <v>-0.7346616622550606</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2863849680672769</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.693173013599985</v>
+        <v>-1.690987321607895</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.729735537892521</v>
+        <v>-1.727268056618885</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.756420758953873</v>
+        <v>-0.7565550833782365</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2898885989994504</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.682362817534897</v>
+        <v>-1.680672081845625</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.78150300300378</v>
+        <v>-1.77902968153778</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7764204977031403</v>
+        <v>-0.7773490882889582</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2912319533279092</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.633532969182546</v>
+        <v>-1.631420279595002</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.852021135722533</v>
+        <v>-1.85051363606867</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7749327086985043</v>
+        <v>-0.7755955705317769</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2905377238191058</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.544759125159116</v>
+        <v>-1.543150152162934</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.953044783228688</v>
+        <v>-1.952506755507188</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7774352311263218</v>
+        <v>-0.7782689185862307</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2871498583570523</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.426553631719148</v>
+        <v>-1.425479036324239</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.004902771321583</v>
+        <v>-2.004958253149038</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.76375896065878</v>
+        <v>-0.7648831976887798</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2811450778633423</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.289401094203457</v>
+        <v>-1.289234648721094</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.056878293285796</v>
+        <v>-2.056650525783615</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7503717797132382</v>
+        <v>-0.7517077237164197</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2720500258089676</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104039228774052</v>
+        <v>-1.105229167968143</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.081638518835472</v>
+        <v>-2.082236408528699</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7238573063823363</v>
+        <v>-0.7251976305297904</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.259817352147401</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.939731256815551</v>
+        <v>-0.9428542996820047</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079166657417563</v>
+        <v>-2.0793455133087</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6687740720566238</v>
+        <v>-0.6700063526453507</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2441485508260601</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6983181451761613</v>
+        <v>-0.7009403915474333</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.1123885916781</v>
+        <v>-2.113404055125327</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6116905718463663</v>
+        <v>-0.612143186754548</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2251284639185581</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4412868991083212</v>
+        <v>-0.4435645741301388</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.11361065193019</v>
+        <v>-2.115281676970235</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5173831455583917</v>
+        <v>-0.5178547410917552</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2028748937288635</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1546823789591254</v>
+        <v>-0.1552926790611253</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.10004826521374</v>
+        <v>-2.101609786646966</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4491346575969554</v>
+        <v>-0.4494252071670463</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1776681867183516</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1434492208677945</v>
+        <v>0.1442361867887943</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.037983810941347</v>
+        <v>-2.037815175386847</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3355166352586223</v>
+        <v>-0.3353750105938041</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1499035806052771</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4853983239509754</v>
+        <v>0.4877066599827021</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.980799567412817</v>
+        <v>-1.980242559066135</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.254635811214644</v>
+        <v>-0.2545044068864623</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1205780784920868</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7892168110919847</v>
+        <v>0.7918492777998931</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.909033093576336</v>
+        <v>-1.908454184508291</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1812318934442092</v>
+        <v>-0.1806785352177548</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09076264200986735</v>
       </c>
       <c r="E86" t="n">
-        <v>1.105431106524809</v>
+        <v>1.107975970347263</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.860915018668304</v>
+        <v>-1.859460810769759</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.105595562142775</v>
+        <v>-0.1059430535884112</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06111720576510805</v>
       </c>
       <c r="E87" t="n">
-        <v>1.352497524372197</v>
+        <v>1.353855369096742</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.690019309723622</v>
+        <v>-1.686500593824532</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0591937737656056</v>
+        <v>-0.05934269867087829</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0325363578421535</v>
       </c>
       <c r="E88" t="n">
-        <v>1.575703836317955</v>
+        <v>1.577466114363682</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.510792566372216</v>
+        <v>-1.506018209114944</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01027385435173938</v>
+        <v>0.01023735314946667</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.005390125949483507</v>
       </c>
       <c r="E89" t="n">
-        <v>1.761064241699269</v>
+        <v>1.76379745172545</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.282426444473186</v>
+        <v>-1.275514576810824</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06539358987972459</v>
+        <v>0.06568121935363359</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.02039612423044504</v>
       </c>
       <c r="E90" t="n">
-        <v>1.942092684394857</v>
+        <v>1.945425974186402</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.054796186811975</v>
+        <v>-1.047094433132431</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09793660177798857</v>
+        <v>0.09830307384880665</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04430868488664589</v>
       </c>
       <c r="E91" t="n">
-        <v>2.124838143645353</v>
+        <v>2.12883283522208</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8312526037572164</v>
+        <v>-0.8230690342076732</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08104676546235674</v>
+        <v>0.08135337556144757</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06571854441121465</v>
       </c>
       <c r="E92" t="n">
-        <v>2.242615842994685</v>
+        <v>2.246501030964593</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6312960976110883</v>
+        <v>-0.6230526660898178</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09329948904126255</v>
+        <v>0.0932936488488989</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08371935346930008</v>
       </c>
       <c r="E93" t="n">
-        <v>2.345984327734839</v>
+        <v>2.350322130612929</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.382936077155155</v>
+        <v>-0.3744561178431573</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04487261396200282</v>
+        <v>0.04443167943854839</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09701945686983261</v>
       </c>
       <c r="E94" t="n">
-        <v>2.366867395579106</v>
+        <v>2.37072922277956</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2411318264218295</v>
+        <v>-0.232519002733559</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009232840062921481</v>
+        <v>0.009148157273648776</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1050409463996448</v>
       </c>
       <c r="E95" t="n">
-        <v>2.323391543576118</v>
+        <v>2.326476625192208</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07474036583760142</v>
+        <v>-0.06727806004496707</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02793122404306854</v>
+        <v>-0.02772681731034132</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1071820557502591</v>
       </c>
       <c r="E96" t="n">
-        <v>2.225558101148599</v>
+        <v>2.228151146558053</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04525952670609362</v>
+        <v>0.05247654441945532</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06864904520233034</v>
+        <v>-0.06907391919678477</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1041154228393614</v>
       </c>
       <c r="E97" t="n">
-        <v>2.076038956302912</v>
+        <v>2.079446708547093</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1197964417950736</v>
+        <v>0.125338784348163</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1234402699098611</v>
+        <v>-0.1243586401590426</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.09672626652305902</v>
       </c>
       <c r="E98" t="n">
-        <v>1.883540375805145</v>
+        <v>1.886223944196236</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1877368596093281</v>
+        <v>0.192216287152236</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1399271329524021</v>
+        <v>-0.1397738279028567</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.08625466493086606</v>
       </c>
       <c r="E99" t="n">
-        <v>1.685936007133471</v>
+        <v>1.68892326552747</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1990653727466887</v>
+        <v>0.2030761248524149</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.134827184970858</v>
+        <v>-0.1342387855902218</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.07339633332033059</v>
       </c>
       <c r="E100" t="n">
-        <v>1.525599365982242</v>
+        <v>1.529475793663604</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2247111174635</v>
+        <v>0.2274983492690447</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1296337939114958</v>
+        <v>-0.1296221135267685</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.06005210885799583</v>
       </c>
       <c r="E101" t="n">
-        <v>1.380854578393826</v>
+        <v>1.386148712771461</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2178897727827745</v>
+        <v>0.219720673088774</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1109977400791371</v>
+        <v>-0.1105319847381373</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.04528078989958158</v>
       </c>
       <c r="E102" t="n">
-        <v>1.196545407637966</v>
+        <v>1.203125844383692</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2326917403284069</v>
+        <v>0.2345562217404973</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1430837569249467</v>
+        <v>-0.1424281953321287</v>
       </c>
     </row>
   </sheetData>
